--- a/docentes/Camarillo Aburto Raymundo Estadisticos 2020.xlsx
+++ b/docentes/Camarillo Aburto Raymundo Estadisticos 2020.xlsx
@@ -1258,7 +1258,7 @@
         <v>13</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1281,7 +1281,7 @@
         <v>13</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1304,7 +1304,7 @@
         <v>9</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1327,7 +1327,7 @@
         <v>14</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1350,7 +1350,7 @@
         <v>10</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1373,7 +1373,7 @@
         <v>10</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1396,7 +1396,7 @@
         <v>10</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1419,7 +1419,7 @@
         <v>10</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1442,7 +1442,7 @@
         <v>15</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1465,7 +1465,7 @@
         <v>15</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1488,7 +1488,7 @@
         <v>12</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1511,7 +1511,7 @@
         <v>14</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1534,7 +1534,7 @@
         <v>10</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1557,7 +1557,7 @@
         <v>12</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
